--- a/1-Data/DOC_TN/WG2_DOC.xlsx
+++ b/1-Data/DOC_TN/WG2_DOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/DOC_TN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{358BE43C-C432-40E9-92F3-7023801CB29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{358BE43C-C432-40E9-92F3-7023801CB29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EBCA9A9-3882-4E7C-8CE6-EA52B3948A4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210AB74C-9B57-4E67-AA91-4624EA381E08}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{210AB74C-9B57-4E67-AA91-4624EA381E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="85">
   <si>
     <t>pi_name</t>
   </si>
@@ -234,13 +234,70 @@
   </si>
   <si>
     <t>&gt;RANGE</t>
+  </si>
+  <si>
+    <t>smr_02</t>
+  </si>
+  <si>
+    <t>ec966</t>
+  </si>
+  <si>
+    <t>ec967</t>
+  </si>
+  <si>
+    <t>lorain</t>
+  </si>
+  <si>
+    <t>lsu_01</t>
+  </si>
+  <si>
+    <t>lhu_04</t>
+  </si>
+  <si>
+    <t>smr_03</t>
+  </si>
+  <si>
+    <t>lhu_01</t>
+  </si>
+  <si>
+    <t>lsu_04</t>
+  </si>
+  <si>
+    <t>sb_14</t>
+  </si>
+  <si>
+    <t>sb_4</t>
+  </si>
+  <si>
+    <t>sb_2</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>detroit_river_19</t>
+  </si>
+  <si>
+    <t>godwin</t>
+  </si>
+  <si>
+    <t>eveleth</t>
+  </si>
+  <si>
+    <t>saint marys river</t>
+  </si>
+  <si>
+    <t>detroit river</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +316,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,21 +357,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D176AE89-859D-4887-A897-780390B61A92}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,6 +391,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,20 +714,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E974F694-C727-4900-BCF4-CDA6E317C170}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -726,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -762,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -798,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -834,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -870,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -906,7 +981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -942,7 +1017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -978,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ref="I11:I60" si="1">CONCATENATE(A11,"_",B11,"_",D11,"_",E11,"_",G11,"_",H11)</f>
+        <f t="shared" ref="I11:I74" si="1">CONCATENATE(A11,"_",B11,"_",D11,"_",E11,"_",G11,"_",H11)</f>
         <v>uzarski_nw_pier_february_2024_npoc_A</v>
       </c>
       <c r="J11">
@@ -1050,7 +1125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1158,7 +1233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1266,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1302,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1338,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1410,7 +1485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1554,7 +1629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1626,7 +1701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1698,7 +1773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1806,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1842,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1878,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1950,7 +2025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1986,7 +2061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2022,7 +2097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2094,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2130,7 +2205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2166,7 +2241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2202,7 +2277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2274,7 +2349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -2381,11 +2456,11 @@
       <c r="K48" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -2421,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2434,10 +2509,10 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="E50">
+        <v>2024</v>
+      </c>
+      <c r="F50" t="s">
         <v>23</v>
       </c>
       <c r="G50" t="s">
@@ -2457,7 +2532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2470,10 +2545,10 @@
       <c r="D51" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51">
+        <v>2024</v>
+      </c>
+      <c r="F51" t="s">
         <v>23</v>
       </c>
       <c r="G51" t="s">
@@ -2493,7 +2568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2506,10 +2581,10 @@
       <c r="D52" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="E52">
+        <v>2024</v>
+      </c>
+      <c r="F52" t="s">
         <v>23</v>
       </c>
       <c r="G52" t="s">
@@ -2529,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2542,10 +2617,10 @@
       <c r="D53" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="E53">
+        <v>2024</v>
+      </c>
+      <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" t="s">
@@ -2565,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2578,10 +2653,10 @@
       <c r="D54" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="E54">
+        <v>2024</v>
+      </c>
+      <c r="F54" t="s">
         <v>25</v>
       </c>
       <c r="G54" t="s">
@@ -2601,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2614,10 +2689,10 @@
       <c r="D55" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="E55">
+        <v>2024</v>
+      </c>
+      <c r="F55" t="s">
         <v>21</v>
       </c>
       <c r="G55" t="s">
@@ -2637,7 +2712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2650,10 +2725,10 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="E56">
+        <v>2024</v>
+      </c>
+      <c r="F56" t="s">
         <v>21</v>
       </c>
       <c r="G56" t="s">
@@ -2673,7 +2748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2686,10 +2761,10 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="E57">
+        <v>2024</v>
+      </c>
+      <c r="F57" t="s">
         <v>33</v>
       </c>
       <c r="G57" t="s">
@@ -2709,7 +2784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -2722,10 +2797,10 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="E58">
+        <v>2024</v>
+      </c>
+      <c r="F58" t="s">
         <v>33</v>
       </c>
       <c r="G58" t="s">
@@ -2745,7 +2820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2758,10 +2833,10 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E59">
+        <v>2024</v>
+      </c>
+      <c r="F59" t="s">
         <v>23</v>
       </c>
       <c r="G59" t="s">
@@ -2781,7 +2856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2794,10 +2869,10 @@
       <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="E60">
+        <v>2024</v>
+      </c>
+      <c r="F60" t="s">
         <v>21</v>
       </c>
       <c r="G60" t="s">
@@ -2814,6 +2889,1485 @@
         <v>1.5429999999999999</v>
       </c>
       <c r="K60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45351</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61">
+        <v>2024</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>_smr_02_february_2024_npoc_A</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1.772</v>
+      </c>
+      <c r="K61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>2025</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>_ec966_february_2025_npoc_A</v>
+      </c>
+      <c r="J62" s="5">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="K62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45706</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>2025</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>wagner_scs2_february_2025_npoc_A</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="K63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64">
+        <v>2025</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>zastepa_graeber_february_2025_npoc_A</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="K64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <v>2025</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>_ec967_february_2025_npoc_A</v>
+      </c>
+      <c r="J65" s="5">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="K65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66">
+        <v>2025</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>_gb_32_february_2025_npoc_A</v>
+      </c>
+      <c r="J66" s="5">
+        <v>9.1329999999999991</v>
+      </c>
+      <c r="K66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45712</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67">
+        <v>2025</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>wagner_scs1_february_2025_npoc_A</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="K67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68">
+        <v>2025</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>eveleth_lorain_february_2025_npoc_A</v>
+      </c>
+      <c r="J68" s="5">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="K68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45708</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>2025</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>_bay_of_quinte_february_2025_npoc_A</v>
+      </c>
+      <c r="J69" s="5">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="K69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45705</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>2025</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>coleman_chicago_february_2025_npoc_A</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="K70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45699</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>2025</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>_lsc_mb_february_2025_npoc_A</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1.823</v>
+      </c>
+      <c r="K71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45706</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>2025</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>doubek_st_martins_bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J72" s="5">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="K72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45351</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73">
+        <v>2024</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>_lsu_01_february_2024_npoc_A</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1.466</v>
+      </c>
+      <c r="K73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45700</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>2025</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>boegman_queens_february_2025_npoc_A</v>
+      </c>
+      <c r="J74" s="5">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="K74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75">
+        <v>2025</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" ref="I75:I104" si="2">CONCATENATE(A75,"_",B75,"_",D75,"_",E75,"_",G75,"_",H75)</f>
+        <v>_suttons_bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="K75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76">
+        <v>2025</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>_georgian_bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J76" s="5">
+        <v>5.28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45699</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77">
+        <v>2025</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>_burlington_pier_february_2025_npoc_A</v>
+      </c>
+      <c r="J77" s="5">
+        <v>2.234</v>
+      </c>
+      <c r="K77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45699</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78">
+        <v>2025</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>_cciw_hamiliton_harbor_february_2025_npoc_A</v>
+      </c>
+      <c r="J78" s="5">
+        <v>3.323</v>
+      </c>
+      <c r="K78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45351</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79">
+        <v>2024</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>_lhu_04_february_2024_npoc_A</v>
+      </c>
+      <c r="J79" s="5">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="K79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45689</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>2025</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>_smr_03_february_2025_npoc_A</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1.425</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45706</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>2025</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>_racine_february_2025_npoc_A</v>
+      </c>
+      <c r="J81" s="5">
+        <v>1.869</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>2025</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>vick-majors_keweenaw_bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="K82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45705</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>2025</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>doubek_whitefish_bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1.502</v>
+      </c>
+      <c r="K83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>2025</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>vick-majors_keweenaw_waterway_february_2025_npoc_A</v>
+      </c>
+      <c r="J84" s="5">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="K84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>2024</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>_lhu_04_may_2024_npoc_A</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1.863</v>
+      </c>
+      <c r="K85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45351</v>
+      </c>
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86">
+        <v>2024</v>
+      </c>
+      <c r="F86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>_smr_02_february_2024_npoc_A</v>
+      </c>
+      <c r="J86" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>2025</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>_nw_pier_february_2025_npoc_A</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1.629</v>
+      </c>
+      <c r="K87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>2024</v>
+      </c>
+      <c r="F88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>_smr_02_may_2024_npoc_A</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1.339</v>
+      </c>
+      <c r="K88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>2024</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>_lsu_01_may_2024_npoc_A</v>
+      </c>
+      <c r="J89" s="5">
+        <v>1.403</v>
+      </c>
+      <c r="K89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45427</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>2024</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>_lhu_04_may_2024_npoc_A</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45689</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91">
+        <v>2025</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>_lhu_01_february_2025_npoc_A</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="K91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45689</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>2025</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>_lsu_04_february_2025_npoc_A</v>
+      </c>
+      <c r="J92" s="5">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="K92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45706</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93">
+        <v>2025</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>chaffin_put-in-bay_february_2025_npoc_A</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1.853</v>
+      </c>
+      <c r="K93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45701</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94">
+        <v>2025</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>godwin_sb_14_february_2025_npoc_A</v>
+      </c>
+      <c r="J94" s="5">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45701</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>2025</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>godwin_sb_4_february_2025_npoc_A</v>
+      </c>
+      <c r="J95" s="5">
+        <v>3.4369999999999998</v>
+      </c>
+      <c r="K95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45701</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <v>2025</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>godwin_sb_2_february_2025_npoc_A</v>
+      </c>
+      <c r="J96" s="5">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="K96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45706</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>2025</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>_1a_february_2025_npoc_A</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="K97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45708</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98">
+        <v>2025</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>_9a_february_2025_npoc_A</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1.712</v>
+      </c>
+      <c r="K98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99">
+        <v>2025</v>
+      </c>
+      <c r="F99" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>_detroit_river_19_february_2025_npoc_A</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="K99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45793</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>2025</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>vick-majors_keweenaw_waterway_may_2025_npoc_A</v>
+      </c>
+      <c r="J100" s="5">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="K100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45797</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>2025</v>
+      </c>
+      <c r="F101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="2"/>
+        <v>wagner_scs1_may_2025_npoc_A</v>
+      </c>
+      <c r="J101" s="5">
+        <v>10.43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45797</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>2025</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="2"/>
+        <v>wagner_scs2_may_2025_npoc_A</v>
+      </c>
+      <c r="J102" s="5">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="K102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45800</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>2025</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="2"/>
+        <v>vick-majors_keweenaw_bay_may_2025_npoc_A</v>
+      </c>
+      <c r="J103" s="5">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="K103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45799</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>2025</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="2"/>
+        <v>doubek_st_martins_bay_may_2025_npoc_A</v>
+      </c>
+      <c r="J104" s="5">
+        <v>9.9039999999999999</v>
+      </c>
+      <c r="K104" t="s">
         <v>18</v>
       </c>
     </row>
